--- a/console/Networking/jksChExcel/jksContainerMixinsXlsx/containerRegistry/components/ViewAllToken.xlsx
+++ b/console/Networking/jksChExcel/jksContainerMixinsXlsx/containerRegistry/components/ViewAllToken.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\12.12\JD\console;Management-and-Monitoring;可用性监控控制台中文元素（3份文件）-译文-提交\jksChExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="21840" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -145,9 +140,6 @@
     </r>
   </si>
   <si>
-    <t>Disable</t>
-  </si>
-  <si>
     <t>View all tokens</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,6 +149,10 @@
   </si>
   <si>
     <t>No token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,6 +187,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -212,9 +215,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -554,13 +558,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="45.125" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -570,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -625,7 +632,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -636,7 +643,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -647,7 +654,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
